--- a/topic01/book-a/archives/stockPrices.xlsx
+++ b/topic01/book-a/archives/stockPrices.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Analytics\analytics-2017\topic01\book-a\archives\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="744" yWindow="60" windowWidth="23256" windowHeight="13116" tabRatio="500"/>
+    <workbookView xWindow="750" yWindow="60" windowWidth="23250" windowHeight="13110" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Functions on Arrays - template " sheetId="2" r:id="rId1"/>
@@ -28,7 +33,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -311,14 +316,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -367,7 +375,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1440,6 +1447,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E23-4836-A320-009849F2CC62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1486,7 +1498,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1518,7 +1529,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1866,20 +1883,20 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.296875" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="29.296875" customWidth="1"/>
-    <col min="7" max="7" width="28.796875" customWidth="1"/>
-    <col min="8" max="8" width="24.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" customWidth="1"/>
-    <col min="11" max="11" width="26.796875" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="26.75" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -1902,7 +1919,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -1914,7 +1931,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1941,7 +1958,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>41852</v>
       </c>
@@ -1966,7 +1983,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>41821</v>
       </c>
@@ -1989,7 +2006,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>41792</v>
       </c>
@@ -2010,7 +2027,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>41760</v>
       </c>
@@ -2033,7 +2050,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>41730</v>
       </c>
@@ -2054,7 +2071,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>41701</v>
       </c>
@@ -2077,7 +2094,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>41673</v>
       </c>
@@ -2098,7 +2115,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>41641</v>
       </c>
@@ -2121,7 +2138,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>41610</v>
       </c>
@@ -2142,7 +2159,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>41579</v>
       </c>
@@ -2165,7 +2182,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>41548</v>
       </c>
@@ -2186,7 +2203,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>41520</v>
       </c>
@@ -2209,7 +2226,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>41487</v>
       </c>
@@ -2230,7 +2247,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>41456</v>
       </c>
@@ -2251,7 +2268,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>41428</v>
       </c>
@@ -2274,7 +2291,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>41395</v>
       </c>
@@ -2299,7 +2316,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>41365</v>
       </c>
@@ -2322,7 +2339,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>41334</v>
       </c>
@@ -2345,7 +2362,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>41306</v>
       </c>
@@ -2366,7 +2383,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>41276</v>
       </c>
@@ -2389,7 +2406,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>41246</v>
       </c>
@@ -2410,7 +2427,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>41214</v>
       </c>
@@ -2433,7 +2450,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>41183</v>
       </c>
@@ -2454,7 +2471,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>41156</v>
       </c>
@@ -2477,7 +2494,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>41122</v>
       </c>
@@ -2498,7 +2515,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>41092</v>
       </c>
@@ -2519,7 +2536,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>41061</v>
       </c>
@@ -2536,7 +2553,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>41030</v>
       </c>
@@ -2551,7 +2568,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>41001</v>
       </c>
@@ -2568,7 +2585,7 @@
       </c>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>40969</v>
       </c>
@@ -2583,7 +2600,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>40940</v>
       </c>
@@ -2598,7 +2615,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>40911</v>
       </c>
@@ -2612,7 +2629,7 @@
       <c r="E35" s="23"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>40878</v>
       </c>
@@ -2626,7 +2643,7 @@
       <c r="E36" s="23"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>40848</v>
       </c>
@@ -2640,7 +2657,7 @@
       <c r="E37" s="23"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>40819</v>
       </c>
@@ -2654,7 +2671,7 @@
       <c r="E38" s="23"/>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>40787</v>
       </c>
@@ -2667,7 +2684,7 @@
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>40756</v>
       </c>
@@ -2680,7 +2697,7 @@
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>40725</v>
       </c>
@@ -2693,7 +2710,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>40695</v>
       </c>
@@ -2706,7 +2723,7 @@
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>40665</v>
       </c>
@@ -2719,7 +2736,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>40634</v>
       </c>
@@ -2732,7 +2749,7 @@
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>40603</v>
       </c>
@@ -2745,7 +2762,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>40575</v>
       </c>
@@ -2758,7 +2775,7 @@
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>40546</v>
       </c>
@@ -2771,7 +2788,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>40513</v>
       </c>
@@ -2784,7 +2801,7 @@
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>40483</v>
       </c>
@@ -2797,7 +2814,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>40452</v>
       </c>
@@ -2810,7 +2827,7 @@
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>40422</v>
       </c>
@@ -2823,7 +2840,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>40392</v>
       </c>
@@ -2836,7 +2853,7 @@
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>40360</v>
       </c>
@@ -2849,7 +2866,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>40330</v>
       </c>
@@ -2862,7 +2879,7 @@
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>40301</v>
       </c>
@@ -2875,7 +2892,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>40269</v>
       </c>
@@ -2888,7 +2905,7 @@
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>40238</v>
       </c>
@@ -2901,7 +2918,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>40210</v>
       </c>
@@ -2914,7 +2931,7 @@
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>40182</v>
       </c>
@@ -2927,7 +2944,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>40148</v>
       </c>
@@ -2940,7 +2957,7 @@
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>40119</v>
       </c>
@@ -2953,7 +2970,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>40087</v>
       </c>
@@ -2966,7 +2983,7 @@
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>40057</v>
       </c>
@@ -2979,7 +2996,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>40028</v>
       </c>
@@ -2992,7 +3009,7 @@
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>39995</v>
       </c>
@@ -3005,7 +3022,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>39965</v>
       </c>
@@ -3018,7 +3035,7 @@
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>39934</v>
       </c>
@@ -3031,7 +3048,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>39904</v>
       </c>
@@ -3044,7 +3061,7 @@
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>39874</v>
       </c>
@@ -3057,7 +3074,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>39846</v>
       </c>
@@ -3070,7 +3087,7 @@
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>39815</v>
       </c>
@@ -3083,7 +3100,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>39783</v>
       </c>
@@ -3096,7 +3113,7 @@
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>39755</v>
       </c>
@@ -3109,7 +3126,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>39722</v>
       </c>
@@ -3122,7 +3139,7 @@
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>39693</v>
       </c>
@@ -3135,7 +3152,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>39661</v>
       </c>
@@ -3148,7 +3165,7 @@
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>39630</v>
       </c>
@@ -3161,7 +3178,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>39601</v>
       </c>
@@ -3174,7 +3191,7 @@
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>39569</v>
       </c>
@@ -3187,7 +3204,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>39539</v>
       </c>
@@ -3200,7 +3217,7 @@
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>39510</v>
       </c>
@@ -3213,7 +3230,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>39479</v>
       </c>
@@ -3226,7 +3243,7 @@
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>39449</v>
       </c>
@@ -3239,7 +3256,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>39419</v>
       </c>
@@ -3252,7 +3269,7 @@
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>39387</v>
       </c>
@@ -3265,7 +3282,7 @@
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>39356</v>
       </c>
@@ -3278,7 +3295,7 @@
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>39329</v>
       </c>
@@ -3291,7 +3308,7 @@
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>39295</v>
       </c>
@@ -3304,7 +3321,7 @@
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>39265</v>
       </c>
@@ -3317,7 +3334,7 @@
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>39234</v>
       </c>
@@ -3330,7 +3347,7 @@
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>39203</v>
       </c>
@@ -3343,7 +3360,7 @@
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>39174</v>
       </c>
@@ -3356,7 +3373,7 @@
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>39142</v>
       </c>
@@ -3369,7 +3386,7 @@
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>39114</v>
       </c>
@@ -3382,7 +3399,7 @@
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>39085</v>
       </c>
@@ -3395,7 +3412,7 @@
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>39052</v>
       </c>
@@ -3408,7 +3425,7 @@
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>39022</v>
       </c>
@@ -3421,7 +3438,7 @@
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>38992</v>
       </c>
@@ -3434,7 +3451,7 @@
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>38961</v>
       </c>
@@ -3447,7 +3464,7 @@
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>38930</v>
       </c>
@@ -3460,7 +3477,7 @@
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>38901</v>
       </c>
@@ -3473,7 +3490,7 @@
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>38869</v>
       </c>
@@ -3486,7 +3503,7 @@
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>38838</v>
       </c>
@@ -3499,7 +3516,7 @@
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>38810</v>
       </c>
@@ -3512,7 +3529,7 @@
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>38777</v>
       </c>
@@ -3525,7 +3542,7 @@
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>38749</v>
       </c>
@@ -3538,7 +3555,7 @@
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>38720</v>
       </c>
@@ -3551,7 +3568,7 @@
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>38687</v>
       </c>
@@ -3564,7 +3581,7 @@
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>38657</v>
       </c>
@@ -3577,7 +3594,7 @@
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>38628</v>
       </c>
@@ -3590,7 +3607,7 @@
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>38596</v>
       </c>
@@ -3603,7 +3620,7 @@
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>38565</v>
       </c>
@@ -3616,7 +3633,7 @@
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>38534</v>
       </c>
@@ -3629,7 +3646,7 @@
       <c r="D113" s="23"/>
       <c r="E113" s="23"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>38504</v>
       </c>
@@ -3642,7 +3659,7 @@
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>38474</v>
       </c>
@@ -3655,7 +3672,7 @@
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>38443</v>
       </c>
@@ -3668,7 +3685,7 @@
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>38412</v>
       </c>
@@ -3681,7 +3698,7 @@
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>38384</v>
       </c>
@@ -3694,7 +3711,7 @@
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>38355</v>
       </c>
@@ -3707,7 +3724,7 @@
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>38322</v>
       </c>
@@ -3720,7 +3737,7 @@
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>38292</v>
       </c>
@@ -3733,7 +3750,7 @@
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>38261</v>
       </c>
@@ -3746,7 +3763,7 @@
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>38231</v>
       </c>
@@ -3759,7 +3776,7 @@
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>38201</v>
       </c>
@@ -3772,7 +3789,7 @@
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>38169</v>
       </c>
@@ -3785,7 +3802,7 @@
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>38139</v>
       </c>
@@ -3798,7 +3815,7 @@
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>38110</v>
       </c>
@@ -3811,7 +3828,7 @@
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>38078</v>
       </c>
@@ -3824,7 +3841,7 @@
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>38047</v>
       </c>
@@ -3837,7 +3854,7 @@
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>38019</v>
       </c>
@@ -3850,7 +3867,7 @@
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>37988</v>
       </c>
@@ -3863,7 +3880,7 @@
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>37956</v>
       </c>
@@ -3876,7 +3893,7 @@
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>37928</v>
       </c>
@@ -3889,7 +3906,7 @@
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>37895</v>
       </c>
@@ -3902,7 +3919,7 @@
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>37866</v>
       </c>
@@ -3915,7 +3932,7 @@
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>37834</v>
       </c>
@@ -3928,7 +3945,7 @@
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>37803</v>
       </c>
@@ -3941,7 +3958,7 @@
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>37774</v>
       </c>
@@ -3954,7 +3971,7 @@
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>37742</v>
       </c>
@@ -3967,7 +3984,7 @@
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>37712</v>
       </c>
@@ -3980,7 +3997,7 @@
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>37683</v>
       </c>
@@ -3993,7 +4010,7 @@
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>37655</v>
       </c>
@@ -4006,7 +4023,7 @@
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>37623</v>
       </c>
@@ -4019,7 +4036,7 @@
       <c r="D143" s="23"/>
       <c r="E143" s="23"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>37592</v>
       </c>
@@ -4032,7 +4049,7 @@
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>37561</v>
       </c>
@@ -4045,7 +4062,7 @@
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>37530</v>
       </c>
@@ -4058,7 +4075,7 @@
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>37502</v>
       </c>
@@ -4071,7 +4088,7 @@
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>37469</v>
       </c>
@@ -4084,7 +4101,7 @@
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>37438</v>
       </c>
@@ -4097,7 +4114,7 @@
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>37410</v>
       </c>
@@ -4110,7 +4127,7 @@
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>37377</v>
       </c>
@@ -4123,7 +4140,7 @@
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>37347</v>
       </c>
@@ -4136,7 +4153,7 @@
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>37316</v>
       </c>
@@ -4149,7 +4166,7 @@
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>37288</v>
       </c>
@@ -4162,7 +4179,7 @@
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>37258</v>
       </c>
@@ -4175,7 +4192,7 @@
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>37228</v>
       </c>
@@ -4188,7 +4205,7 @@
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>37196</v>
       </c>
@@ -4201,7 +4218,7 @@
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>37165</v>
       </c>
@@ -4214,7 +4231,7 @@
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>37138</v>
       </c>
@@ -4227,7 +4244,7 @@
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>37104</v>
       </c>
@@ -4240,7 +4257,7 @@
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>37074</v>
       </c>
@@ -4253,7 +4270,7 @@
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>37043</v>
       </c>
@@ -4266,7 +4283,7 @@
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>37012</v>
       </c>
@@ -4279,7 +4296,7 @@
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>36983</v>
       </c>
@@ -4292,7 +4309,7 @@
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>36951</v>
       </c>
@@ -4305,7 +4322,7 @@
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>36923</v>
       </c>
@@ -4318,7 +4335,7 @@
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>36893</v>
       </c>
@@ -4331,7 +4348,7 @@
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>36861</v>
       </c>
@@ -4344,7 +4361,7 @@
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>36831</v>
       </c>
@@ -4357,7 +4374,7 @@
       <c r="D169" s="23"/>
       <c r="E169" s="23"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>36801</v>
       </c>
@@ -4370,7 +4387,7 @@
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>36770</v>
       </c>
@@ -4383,7 +4400,7 @@
       <c r="D171" s="23"/>
       <c r="E171" s="23"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>36739</v>
       </c>
@@ -4396,7 +4413,7 @@
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>36710</v>
       </c>
@@ -4409,7 +4426,7 @@
       <c r="D173" s="23"/>
       <c r="E173" s="23"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>36678</v>
       </c>
@@ -4422,7 +4439,7 @@
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="9">
         <v>36647</v>
       </c>
@@ -4435,7 +4452,7 @@
       <c r="D175" s="23"/>
       <c r="E175" s="23"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>36619</v>
       </c>
@@ -4448,7 +4465,7 @@
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>36586</v>
       </c>
@@ -4461,7 +4478,7 @@
       <c r="D177" s="23"/>
       <c r="E177" s="23"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>36557</v>
       </c>
@@ -4474,7 +4491,7 @@
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>36528</v>
       </c>
@@ -4506,21 +4523,21 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.296875" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="29.296875" customWidth="1"/>
-    <col min="6" max="6" width="4.69921875" customWidth="1"/>
-    <col min="7" max="7" width="28.796875" customWidth="1"/>
-    <col min="8" max="8" width="24.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" customWidth="1"/>
-    <col min="11" max="11" width="26.796875" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="26.75" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4538,7 +4555,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -4550,7 +4567,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4577,7 +4594,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>41852</v>
       </c>
@@ -4608,7 +4625,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>41821</v>
       </c>
@@ -4637,7 +4654,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>41792</v>
       </c>
@@ -4670,7 +4687,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>41760</v>
       </c>
@@ -4699,7 +4716,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>41730</v>
       </c>
@@ -4732,7 +4749,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>41701</v>
       </c>
@@ -4761,7 +4778,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>41673</v>
       </c>
@@ -4794,7 +4811,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>41641</v>
       </c>
@@ -4823,7 +4840,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>41610</v>
       </c>
@@ -4856,7 +4873,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>41579</v>
       </c>
@@ -4885,7 +4902,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>41548</v>
       </c>
@@ -4918,7 +4935,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>41520</v>
       </c>
@@ -4947,7 +4964,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>41487</v>
       </c>
@@ -4980,7 +4997,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>41456</v>
       </c>
@@ -5007,7 +5024,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>41428</v>
       </c>
@@ -5036,7 +5053,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>41395</v>
       </c>
@@ -5067,7 +5084,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>41365</v>
       </c>
@@ -5096,7 +5113,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>41334</v>
       </c>
@@ -5128,7 +5145,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>41306</v>
       </c>
@@ -5155,7 +5172,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>41276</v>
       </c>
@@ -5187,7 +5204,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>41246</v>
       </c>
@@ -5214,7 +5231,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>41214</v>
       </c>
@@ -5246,7 +5263,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>41183</v>
       </c>
@@ -5273,7 +5290,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>41156</v>
       </c>
@@ -5305,7 +5322,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>41122</v>
       </c>
@@ -5332,7 +5349,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>41092</v>
       </c>
@@ -5359,7 +5376,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>41061</v>
       </c>
@@ -5380,7 +5397,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>41030</v>
       </c>
@@ -5401,7 +5418,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>41001</v>
       </c>
@@ -5422,7 +5439,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>40969</v>
       </c>
@@ -5443,7 +5460,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>40940</v>
       </c>
@@ -5464,7 +5481,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>40911</v>
       </c>
@@ -5484,7 +5501,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>40878</v>
       </c>
@@ -5504,7 +5521,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>40848</v>
       </c>
@@ -5524,7 +5541,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>40819</v>
       </c>
@@ -5544,7 +5561,7 @@
       </c>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>40787</v>
       </c>
@@ -5563,7 +5580,7 @@
         <v>5.5548259528042869E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>40756</v>
       </c>
@@ -5582,7 +5599,7 @@
         <v>3.0621879590610628E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>40725</v>
       </c>
@@ -5601,7 +5618,7 @@
         <v>-1.2280137946591087E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>40695</v>
       </c>
@@ -5620,7 +5637,7 @@
         <v>4.2809157213146206E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>40665</v>
       </c>
@@ -5639,7 +5656,7 @@
         <v>1.7933078749567344E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>40634</v>
       </c>
@@ -5658,7 +5675,7 @@
         <v>2.719678534882717E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>40603</v>
       </c>
@@ -5677,7 +5694,7 @@
         <v>8.8011730507392954E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>40575</v>
       </c>
@@ -5696,7 +5713,7 @@
         <v>1.9815563990466429E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>40546</v>
       </c>
@@ -5715,7 +5732,7 @@
         <v>3.9665102687966381E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>40513</v>
       </c>
@@ -5734,7 +5751,7 @@
         <v>1.4679978926943869E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>40483</v>
       </c>
@@ -5753,7 +5770,7 @@
         <v>-2.3692019258980498E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>40452</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>2.7958333128729911E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>40422</v>
       </c>
@@ -5791,7 +5808,7 @@
         <v>3.0384976012385923E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>40392</v>
       </c>
@@ -5810,7 +5827,7 @@
         <v>1.8495201208999348E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>40360</v>
       </c>
@@ -5829,7 +5846,7 @@
         <v>6.6683226432004528E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>40330</v>
       </c>
@@ -5848,7 +5865,7 @@
         <v>2.5290858194812632E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>40301</v>
       </c>
@@ -5867,7 +5884,7 @@
         <v>-3.6060104934585294E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>40269</v>
       </c>
@@ -5886,7 +5903,7 @@
         <v>2.7989443220917565E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>40238</v>
       </c>
@@ -5905,7 +5922,7 @@
         <v>-2.0075289050894142E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>40210</v>
       </c>
@@ -5924,7 +5941,7 @@
         <v>3.7674287936445405E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>40182</v>
       </c>
@@ -5943,7 +5960,7 @@
         <v>-4.0439435193726232E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>40148</v>
       </c>
@@ -5962,7 +5979,7 @@
         <v>3.1421338004873393E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>40119</v>
       </c>
@@ -5981,7 +5998,7 @@
         <v>6.7835721506927668E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>40087</v>
       </c>
@@ -6000,7 +6017,7 @@
         <v>4.8154186148665701E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>40057</v>
       </c>
@@ -6019,7 +6036,7 @@
         <v>1.6220955823538708E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>40028</v>
       </c>
@@ -6038,7 +6055,7 @@
         <v>1.5934403077824351E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>39995</v>
       </c>
@@ -6057,7 +6074,7 @@
         <v>5.9327346776551944E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>39965</v>
       </c>
@@ -6076,7 +6093,7 @@
         <v>3.0734927046334157E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>39934</v>
       </c>
@@ -6095,7 +6112,7 @@
         <v>4.08219945202552E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>39904</v>
       </c>
@@ -6114,7 +6131,7 @@
         <v>-3.6266177984394493E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>39874</v>
       </c>
@@ -6133,7 +6150,7 @@
         <v>6.119556102691992E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>39846</v>
       </c>
@@ -6152,7 +6169,7 @@
         <v>-0.10234626863839412</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>39815</v>
       </c>
@@ -6171,7 +6188,7 @@
         <v>9.3924964045466273E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>39783</v>
       </c>
@@ -6190,7 +6207,7 @@
         <v>-3.6199116679428996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>39755</v>
       </c>
@@ -6209,7 +6226,7 @@
         <v>-3.6580932003612704E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>39722</v>
       </c>
@@ -6228,7 +6245,7 @@
         <v>-6.2187940560226189E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>39693</v>
       </c>
@@ -6247,7 +6264,7 @@
         <v>-5.1519836276086358E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>39661</v>
       </c>
@@ -6266,7 +6283,7 @@
         <v>4.905134399258544E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>39630</v>
       </c>
@@ -6285,7 +6302,7 @@
         <v>1.1452493731787729E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>39601</v>
       </c>
@@ -6304,7 +6321,7 @@
         <v>-6.1425040539709035E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>39569</v>
       </c>
@@ -6323,7 +6340,7 @@
         <v>2.0896282726412412E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>39539</v>
       </c>
@@ -6342,7 +6359,7 @@
         <v>2.5459623611320349E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>39510</v>
       </c>
@@ -6361,7 +6378,7 @@
         <v>1.7690367681850491E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>39479</v>
       </c>
@@ -6380,7 +6397,7 @@
         <v>-4.9664672314364521E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>39449</v>
       </c>
@@ -6399,7 +6416,7 @@
         <v>-7.8273680561424253E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>39419</v>
       </c>
@@ -6418,7 +6435,7 @@
         <v>1.8883880881723769E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>39387</v>
       </c>
@@ -6437,7 +6454,7 @@
         <v>4.3286392113121623E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>39356</v>
       </c>
@@ -6456,7 +6473,7 @@
         <v>2.5387127487359631E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>39329</v>
       </c>
@@ -6475,7 +6492,7 @@
         <v>1.8830072903874388E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>39295</v>
       </c>
@@ -6494,7 +6511,7 @@
         <v>8.6054405614066132E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>39265</v>
       </c>
@@ -6513,7 +6530,7 @@
         <v>-7.2086253004408143E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>39234</v>
       </c>
@@ -6532,7 +6549,7 @@
         <v>-6.5531125503539928E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>39203</v>
       </c>
@@ -6551,7 +6568,7 @@
         <v>-3.8526118759078569E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>39174</v>
       </c>
@@ -6570,7 +6587,7 @@
         <v>1.1094177284399598E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>39142</v>
       </c>
@@ -6589,7 +6606,7 @@
         <v>3.0608486601449148E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>39114</v>
       </c>
@@ -6608,7 +6625,7 @@
         <v>9.8377576498766481E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>39085</v>
       </c>
@@ -6627,7 +6644,7 @@
         <v>1.997070864794968E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>39052</v>
       </c>
@@ -6646,7 +6663,7 @@
         <v>4.5919854773772271E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>39022</v>
       </c>
@@ -6665,7 +6682,7 @@
         <v>1.275256389739134E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>38992</v>
       </c>
@@ -6684,7 +6701,7 @@
         <v>4.6520015634892699E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>38961</v>
       </c>
@@ -6703,7 +6720,7 @@
         <v>6.7453881395316551E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>38930</v>
       </c>
@@ -6722,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>38901</v>
       </c>
@@ -6741,7 +6758,7 @@
         <v>3.1803281977703365E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>38869</v>
       </c>
@@ -6760,7 +6777,7 @@
         <v>3.9791472803256879E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>38838</v>
       </c>
@@ -6779,7 +6796,7 @@
         <v>-2.0390511553359813E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>38810</v>
       </c>
@@ -6798,7 +6815,7 @@
         <v>-1.1865916550972979E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>38777</v>
       </c>
@@ -6817,7 +6834,7 @@
         <v>2.6131536464436732E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>38749</v>
       </c>
@@ -6836,7 +6853,7 @@
         <v>1.2863883361909828E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>38720</v>
       </c>
@@ -6855,7 +6872,7 @@
         <v>3.2265915696656836E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>38687</v>
       </c>
@@ -6874,7 +6891,7 @@
         <v>2.1561575440105413E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>38657</v>
       </c>
@@ -6893,7 +6910,7 @@
         <v>2.6369359118967459E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>38628</v>
       </c>
@@ -6912,7 +6929,7 @@
         <v>-9.7009106249007812E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>38596</v>
       </c>
@@ -6931,7 +6948,7 @@
         <v>6.3859119248064243E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>38565</v>
       </c>
@@ -6950,7 +6967,7 @@
         <v>-1.8737326666971039E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>38534</v>
       </c>
@@ -6969,7 +6986,7 @@
         <v>-6.5652279978147899E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>38504</v>
       </c>
@@ -6988,7 +7005,7 @@
         <v>7.8556602481022877E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>38474</v>
       </c>
@@ -7007,7 +7024,7 @@
         <v>-5.0198744492355542E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>38443</v>
       </c>
@@ -7026,7 +7043,7 @@
         <v>4.1230074509595011E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>38412</v>
       </c>
@@ -7045,7 +7062,7 @@
         <v>3.7029238637613565E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>38384</v>
       </c>
@@ -7064,7 +7081,7 @@
         <v>1.7693668068925011E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>38355</v>
       </c>
@@ -7083,7 +7100,7 @@
         <v>5.5752709618058151E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>38322</v>
       </c>
@@ -7102,7 +7119,7 @@
         <v>2.1390382487494423E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>38292</v>
       </c>
@@ -7121,7 +7138,7 @@
         <v>4.0792254301067567E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>38261</v>
       </c>
@@ -7140,7 +7157,7 @@
         <v>6.9258440470055166E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>38231</v>
       </c>
@@ -7159,7 +7176,7 @@
         <v>3.3214879946440665E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>38201</v>
       </c>
@@ -7178,7 +7195,7 @@
         <v>4.2058343328060507E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>38169</v>
       </c>
@@ -7197,7 +7214,7 @@
         <v>5.7916736466718362E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>38139</v>
       </c>
@@ -7216,7 +7233,7 @@
         <v>1.7447641869802771E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>38110</v>
       </c>
@@ -7235,7 +7252,7 @@
         <v>-4.0840521444508213E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>38078</v>
       </c>
@@ -7254,7 +7271,7 @@
         <v>-7.0385113665716079E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>38047</v>
       </c>
@@ -7273,7 +7290,7 @@
         <v>2.8585384744651884E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>38019</v>
       </c>
@@ -7292,7 +7309,7 @@
         <v>2.3296998426884177E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>37988</v>
       </c>
@@ -7311,7 +7328,7 @@
         <v>6.0733750424607914E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>37956</v>
       </c>
@@ -7330,7 +7347,7 @@
         <v>0.12534868892355222</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>37928</v>
       </c>
@@ -7349,7 +7366,7 @@
         <v>9.5087879690271358E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>37895</v>
       </c>
@@ -7368,7 +7385,7 @@
         <v>1.8752223749183609E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>37866</v>
       </c>
@@ -7387,7 +7404,7 @@
         <v>4.1971925312916894E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>37834</v>
       </c>
@@ -7406,7 +7423,7 @@
         <v>-1.1217167530924924E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>37803</v>
       </c>
@@ -7425,7 +7442,7 @@
         <v>-0.12856929696932234</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>37774</v>
       </c>
@@ -7444,7 +7461,7 @@
         <v>2.9362646885874172E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>37742</v>
       </c>
@@ -7463,7 +7480,7 @@
         <v>0.11324788049099219</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>37712</v>
       </c>
@@ -7482,7 +7499,7 @@
         <v>0.19004360288786507</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>37683</v>
       </c>
@@ -7501,7 +7518,7 @@
         <v>7.3792332191082333E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>37655</v>
       </c>
@@ -7520,7 +7537,7 @@
         <v>-0.21337582528997409</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>37623</v>
       </c>
@@ -7539,7 +7556,7 @@
         <v>-0.13761287949711348</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>37592</v>
       </c>
@@ -7558,7 +7575,7 @@
         <v>-1.031468660183168E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>37561</v>
       </c>
@@ -7577,7 +7594,7 @@
         <v>-2.2324620705233986E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>37530</v>
       </c>
@@ -7596,7 +7613,7 @@
         <v>4.6735077107459035E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>37502</v>
       </c>
@@ -7615,7 +7632,7 @@
         <v>-0.31644425721140351</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>37469</v>
       </c>
@@ -7634,7 +7651,7 @@
         <v>6.1630875045882522E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>37438</v>
       </c>
@@ -7653,7 +7670,7 @@
         <v>-0.19889093970871699</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>37410</v>
       </c>
@@ -7672,7 +7689,7 @@
         <v>-2.896845090048732E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>37377</v>
       </c>
@@ -7691,7 +7708,7 @@
         <v>-0.17270374689875331</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>37347</v>
       </c>
@@ -7710,7 +7727,7 @@
         <v>1.4020848241938451E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>37316</v>
       </c>
@@ -7729,7 +7746,7 @@
         <v>6.8459079475225809E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>37288</v>
       </c>
@@ -7748,7 +7765,7 @@
         <v>2.0063556680680661E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>37258</v>
       </c>
@@ -7767,7 +7784,7 @@
         <v>-0.11852215882122645</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>37228</v>
       </c>
@@ -7786,7 +7803,7 @@
         <v>8.2575915327587068E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>37196</v>
       </c>
@@ -7805,7 +7822,7 @@
         <v>-5.3683199637458053E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>37165</v>
       </c>
@@ -7824,7 +7841,7 @@
         <v>1.4484932921367013E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>37138</v>
       </c>
@@ -7843,7 +7860,7 @@
         <v>-3.7719543795455966E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>37104</v>
       </c>
@@ -7862,7 +7879,7 @@
         <v>2.5172327743367279E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>37074</v>
       </c>
@@ -7881,7 +7898,7 @@
         <v>-1.0199950595819745E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>37043</v>
       </c>
@@ -7900,7 +7917,7 @@
         <v>-0.15868548040541647</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>37012</v>
       </c>
@@ -7919,7 +7936,7 @@
         <v>-1.6249196890796999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>36983</v>
       </c>
@@ -7938,7 +7955,7 @@
         <v>8.9799258853585764E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>36951</v>
       </c>
@@ -7957,7 +7974,7 @@
         <v>4.7720207809686985E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>36923</v>
       </c>
@@ -7976,7 +7993,7 @@
         <v>0.11494690276563554</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>36893</v>
       </c>
@@ -7995,7 +8012,7 @@
         <v>-0.15330350932589581</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>36861</v>
       </c>
@@ -8014,7 +8031,7 @@
         <v>-5.3464847901058446E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>36831</v>
       </c>
@@ -8033,7 +8050,7 @@
         <v>4.6118393074371829E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>36801</v>
       </c>
@@ -8052,7 +8069,7 @@
         <v>7.8551018366358472E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>36770</v>
       </c>
@@ -8071,7 +8088,7 @@
         <v>0.13662517295894011</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>36739</v>
       </c>
@@ -8090,7 +8107,7 @@
         <v>0.20086513450612362</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>36710</v>
       </c>
@@ -8109,7 +8126,7 @@
         <v>9.0225091592725695E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>36678</v>
       </c>
@@ -8128,7 +8145,7 @@
         <v>-3.3003762907998543E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="9">
         <v>36647</v>
       </c>
@@ -8147,7 +8164,7 @@
         <v>2.2524334578486294E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>36619</v>
       </c>
@@ -8166,7 +8183,7 @@
         <v>9.0879853767550062E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>36586</v>
       </c>
@@ -8185,7 +8202,7 @@
         <v>7.9162193396342784E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>36557</v>
       </c>
@@ -8204,7 +8221,7 @@
         <v>-0.16423370556814595</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>36528</v>
       </c>
